--- a/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_16/2.0/IN13-2.0-attainment-at-age-16--gap-by-year--table-format.xlsx
+++ b/son/content/intermediate_outcomes/compulsory_school_age_(5_to_16_years)/attainment_at_age_16/2.0/IN13-2.0-attainment-at-age-16--gap-by-year--table-format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Government Equality Hub\SON23\Code\smc-son\son\content\intermediate_outcomes\compulsory_school_age_(5_to_16_years)\attainment_at_age_16\2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAB66AD-B56B-43C2-8B5C-3954C06315A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43777CA8-311E-4534-8547-050FE69A6D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" xr2:uid="{5E2D5D1F-6118-431C-89A2-EEDE323452EA}"/>
   </bookViews>
@@ -21,13 +21,13 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="109">
   <si>
     <t>ind_code</t>
   </si>
@@ -315,6 +315,45 @@
   </si>
   <si>
     <t>Disadvantage attainment gap index</t>
+  </si>
+  <si>
+    <t>2010/11</t>
+  </si>
+  <si>
+    <t>2011/12</t>
+  </si>
+  <si>
+    <t>2012/13</t>
+  </si>
+  <si>
+    <t>2013/14</t>
+  </si>
+  <si>
+    <t>2014/15</t>
+  </si>
+  <si>
+    <t>2015/16</t>
+  </si>
+  <si>
+    <t>2016/17</t>
+  </si>
+  <si>
+    <t>2017/18</t>
+  </si>
+  <si>
+    <t>2018/19</t>
+  </si>
+  <si>
+    <t>2019/20</t>
+  </si>
+  <si>
+    <t>2020/21</t>
+  </si>
+  <si>
+    <t>2021/22</t>
+  </si>
+  <si>
+    <t>2022/23</t>
   </si>
 </sst>
 </file>
@@ -864,7 +903,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="james" refreshedDate="45483.445404745369" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="255" xr:uid="{A6502496-9D64-46CE-B9F3-998E0CC1B3F6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="james" refreshedDate="45541.606794444444" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="255" xr:uid="{A6502496-9D64-46CE-B9F3-998E0CC1B3F6}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:U1048576" sheet="IN13-2.0-attainment-at-age-16--"/>
   </cacheSource>
@@ -885,21 +924,34 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="time_period" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="201011" maxValue="202223" count="14">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="201011" maxValue="202223" count="27">
         <n v="202223"/>
         <n v="202122"/>
         <n v="202021"/>
         <n v="201920"/>
         <n v="201819"/>
-        <n v="201011"/>
-        <n v="201112"/>
-        <n v="201213"/>
-        <n v="201314"/>
-        <n v="201415"/>
-        <n v="201516"/>
-        <n v="201617"/>
-        <n v="201718"/>
+        <s v="2010/11"/>
+        <s v="2011/12"/>
+        <s v="2012/13"/>
+        <s v="2013/14"/>
+        <s v="2014/15"/>
+        <s v="2015/16"/>
+        <s v="2016/17"/>
+        <s v="2017/18"/>
+        <s v="2018/19"/>
+        <s v="2019/20"/>
+        <s v="2020/21"/>
+        <s v="2021/22"/>
+        <s v="2022/23"/>
         <m/>
+        <n v="201011" u="1"/>
+        <n v="201112" u="1"/>
+        <n v="201213" u="1"/>
+        <n v="201314" u="1"/>
+        <n v="201415" u="1"/>
+        <n v="201516" u="1"/>
+        <n v="201617" u="1"/>
+        <n v="201718" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="seb" numFmtId="0">
@@ -5177,7 +5229,7 @@
     <s v="Country"/>
     <s v="E92000001"/>
     <s v="England"/>
-    <x v="4"/>
+    <x v="13"/>
     <s v="Total"/>
     <n v="16"/>
     <s v="Total"/>
@@ -5200,7 +5252,7 @@
     <s v="Country"/>
     <s v="E92000001"/>
     <s v="England"/>
-    <x v="3"/>
+    <x v="14"/>
     <s v="Total"/>
     <n v="16"/>
     <s v="Total"/>
@@ -5223,7 +5275,7 @@
     <s v="Country"/>
     <s v="E92000001"/>
     <s v="England"/>
-    <x v="2"/>
+    <x v="15"/>
     <s v="Total"/>
     <n v="16"/>
     <s v="Total"/>
@@ -5246,7 +5298,7 @@
     <s v="Country"/>
     <s v="E92000001"/>
     <s v="England"/>
-    <x v="1"/>
+    <x v="16"/>
     <s v="Total"/>
     <n v="16"/>
     <s v="Total"/>
@@ -5269,7 +5321,7 @@
     <s v="Country"/>
     <s v="E92000001"/>
     <s v="England"/>
-    <x v="0"/>
+    <x v="17"/>
     <s v="Total"/>
     <n v="16"/>
     <s v="Total"/>
@@ -5300,7 +5352,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.246984491671453"/>
+    <n v="0.246984492"/>
     <n v="3482"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5323,7 +5375,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.54952210902216203"/>
+    <n v="0.54952210899999998"/>
     <n v="19042"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5346,7 +5398,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.24494497056565101"/>
+    <n v="0.24494497100000001"/>
     <n v="3907"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5369,7 +5421,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.56646302928165204"/>
+    <n v="0.56646302900000001"/>
     <n v="23735"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5392,7 +5444,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.183537263626251"/>
+    <n v="0.18353726400000001"/>
     <n v="1798"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5415,7 +5467,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.50847848656131001"/>
+    <n v="0.50847848699999998"/>
     <n v="8669"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5438,7 +5490,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.19202898550724601"/>
+    <n v="0.19202898600000001"/>
     <n v="1104"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5461,7 +5513,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.44490781387181699"/>
+    <n v="0.44490781400000001"/>
     <n v="4556"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5484,7 +5536,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.18642117376294601"/>
+    <n v="0.186421174"/>
     <n v="869"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5507,7 +5559,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.44062356717102202"/>
+    <n v="0.44062356699999999"/>
     <n v="4362"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5530,7 +5582,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.20697012802275999"/>
+    <n v="0.206970128"/>
     <n v="5624"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5553,7 +5605,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.49194879089615901"/>
+    <n v="0.491948791"/>
     <n v="17575"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5576,7 +5628,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.205116491548652"/>
+    <n v="0.20511649200000001"/>
     <n v="2189"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5599,7 +5651,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.50689799331103702"/>
+    <n v="0.50689799300000005"/>
     <n v="9568"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5622,7 +5674,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.22015570934256101"/>
+    <n v="0.220155709"/>
     <n v="2312"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5645,7 +5697,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.48821902127253602"/>
+    <n v="0.48821902099999998"/>
     <n v="10483"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5668,7 +5720,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.214314115308151"/>
+    <n v="0.214314115"/>
     <n v="5030"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5691,7 +5743,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.476031598057014"/>
+    <n v="0.476031598"/>
     <n v="20381"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5714,7 +5766,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.205974842767296"/>
+    <n v="0.20597484299999999"/>
     <n v="2544"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5737,7 +5789,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.45051060487038502"/>
+    <n v="0.45051060500000001"/>
     <n v="7638"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5760,7 +5812,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.20613048368953901"/>
+    <n v="0.206130484"/>
     <n v="3556"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5783,7 +5835,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.49440199040341198"/>
+    <n v="0.49440199000000001"/>
     <n v="16881"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5806,7 +5858,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.210502072777522"/>
+    <n v="0.21050207300000001"/>
     <n v="4342"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5829,7 +5881,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.51582676798284499"/>
+    <n v="0.51582676800000005"/>
     <n v="21451"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5852,7 +5904,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.25227085053674603"/>
+    <n v="0.25227085100000002"/>
     <n v="9688"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5875,7 +5927,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.49816041206769701"/>
+    <n v="0.498160412"/>
     <n v="24462"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5898,7 +5950,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.169547534316218"/>
+    <n v="0.169547534"/>
     <n v="3934"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5921,7 +5973,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.48234918608362598"/>
+    <n v="0.48234918599999999"/>
     <n v="15665"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5944,7 +5996,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.209881422924901"/>
+    <n v="0.20988142300000001"/>
     <n v="2530"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -5967,7 +6019,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.51363558888699501"/>
+    <n v="0.51363558899999995"/>
     <n v="11734"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6013,7 +6065,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.57450536613856995"/>
+    <n v="0.57450536600000002"/>
     <n v="13697"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6036,7 +6088,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.42099527787867802"/>
+    <n v="0.42099527799999997"/>
     <n v="2753"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6059,7 +6111,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.64985673352435502"/>
+    <n v="0.64985673399999999"/>
     <n v="5235"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6082,7 +6134,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.21469740634005799"/>
+    <n v="0.21469740600000001"/>
     <n v="4164"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6105,7 +6157,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.52582789179104505"/>
+    <n v="0.52582789200000002"/>
     <n v="17152"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6128,7 +6180,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.20146984287886499"/>
+    <n v="0.20146984300000001"/>
     <n v="3946"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6151,7 +6203,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.48959713239304897"/>
+    <n v="0.48959713199999999"/>
     <n v="12833"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6174,7 +6226,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.235967012503325"/>
+    <n v="0.235967013"/>
     <n v="3759"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6197,7 +6249,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.47792989831278798"/>
+    <n v="0.47792989800000002"/>
     <n v="17603"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6220,7 +6272,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.22402402402402399"/>
+    <n v="0.22402402399999999"/>
     <n v="1665"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6243,7 +6295,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.48798408082044997"/>
+    <n v="0.48798408100000001"/>
     <n v="6533"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6266,7 +6318,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.17270916334661399"/>
+    <n v="0.172709163"/>
     <n v="5020"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6289,7 +6341,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.46081289658720598"/>
+    <n v="0.460812897"/>
     <n v="11662"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6312,7 +6364,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.210843373493976"/>
+    <n v="0.210843373"/>
     <n v="1162"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6335,7 +6387,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.51343154246100497"/>
+    <n v="0.51343154199999996"/>
     <n v="6924"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6358,7 +6410,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.212679425837321"/>
+    <n v="0.212679426"/>
     <n v="4180"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6381,7 +6433,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.50071790944768801"/>
+    <n v="0.50071790900000002"/>
     <n v="10447"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6404,7 +6456,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.34182229767968297"/>
+    <n v="0.34182229800000002"/>
     <n v="5301"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6427,7 +6479,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.56214640836619201"/>
+    <n v="0.56214640800000004"/>
     <n v="17499"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6450,7 +6502,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.33501174890903002"/>
+    <n v="0.33501174900000003"/>
     <n v="2979"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6473,7 +6525,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.63102069205355604"/>
+    <n v="0.63102069199999999"/>
     <n v="11502"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6496,7 +6548,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.38827614379085001"/>
+    <n v="0.38827614399999999"/>
     <n v="4896"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6519,7 +6571,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.62581238856617005"/>
+    <n v="0.62581238900000002"/>
     <n v="17387"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6542,7 +6594,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.17848769050410301"/>
+    <n v="0.178487691"/>
     <n v="3412"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6565,7 +6617,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.43786727819979898"/>
+    <n v="0.43786727800000003"/>
     <n v="13954"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6588,7 +6640,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.222034307803817"/>
+    <n v="0.22203430800000001"/>
     <n v="4139"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6611,7 +6663,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.48996899507568797"/>
+    <n v="0.48996899500000002"/>
     <n v="10966"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6634,7 +6686,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.21435546875"/>
+    <n v="0.21435546899999999"/>
     <n v="4096"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6657,7 +6709,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.53377383106771603"/>
+    <n v="0.53377383099999998"/>
     <n v="23761"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6680,7 +6732,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.22978491696161199"/>
+    <n v="0.22978491700000001"/>
     <n v="3673"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6703,7 +6755,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.49511677282377897"/>
+    <n v="0.49511677300000001"/>
     <n v="9420"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6726,7 +6778,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.26958886050918701"/>
+    <n v="0.26958886100000001"/>
     <n v="12137"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6749,7 +6801,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.49080281229561801"/>
+    <n v="0.49080281199999998"/>
     <n v="24464"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6772,7 +6824,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.237607537894306"/>
+    <n v="0.23760753800000001"/>
     <n v="7323"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6795,7 +6847,7 @@
     <s v="NA"/>
     <s v="NA"/>
     <s v="NA"/>
-    <n v="0.50292771736456199"/>
+    <n v="0.50292771700000005"/>
     <n v="20323"/>
     <s v="NA"/>
     <s v="NA"/>
@@ -6810,7 +6862,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <x v="18"/>
     <m/>
     <m/>
     <m/>
@@ -6831,7 +6883,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE403D2-F522-48AA-B4AE-E45F8CAA9626}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="School year">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BE403D2-F522-48AA-B4AE-E45F8CAA9626}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="School year">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -6840,13 +6892,13 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
+      <items count="28">
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
         <item x="13"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
         <item x="12"/>
         <item x="11"/>
         <item x="10"/>
@@ -6855,6 +6907,19 @@
         <item x="7"/>
         <item x="6"/>
         <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="26"/>
+        <item m="1" x="25"/>
+        <item m="1" x="24"/>
+        <item m="1" x="23"/>
+        <item m="1" x="22"/>
+        <item m="1" x="21"/>
+        <item m="1" x="20"/>
+        <item m="1" x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7266,12 +7331,12 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7292,104 +7357,104 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>202223</v>
+      <c r="A4" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="3">
         <v>3.95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>202122</v>
+      <c r="A5" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="3">
         <v>3.84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>202021</v>
+      <c r="A6" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B6" s="3">
         <v>3.79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>201920</v>
+      <c r="A7" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="3">
         <v>3.66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>201819</v>
+      <c r="A8" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B8" s="3">
         <v>3.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>201718</v>
+      <c r="A9" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B9" s="3">
         <v>3.68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>201617</v>
+      <c r="A10" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B10" s="3">
         <v>3.66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>201516</v>
+      <c r="A11" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B11" s="3">
         <v>3.78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>201415</v>
+      <c r="A12" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B12" s="3">
         <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>201314</v>
+      <c r="A13" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B13" s="3">
         <v>3.74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>201213</v>
+      <c r="A14" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="3">
         <v>3.81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>201112</v>
+      <c r="A15" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="B15" s="3">
         <v>3.89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>201011</v>
+      <c r="A16" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B16" s="3">
         <v>4.07</v>
@@ -7405,7 +7470,7 @@
   <dimension ref="A1:U255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:U255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -18866,8 +18931,8 @@
       <c r="E177" t="s">
         <v>25</v>
       </c>
-      <c r="F177">
-        <v>201011</v>
+      <c r="F177" t="s">
+        <v>96</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
@@ -18931,8 +18996,8 @@
       <c r="E178" t="s">
         <v>25</v>
       </c>
-      <c r="F178">
-        <v>201112</v>
+      <c r="F178" t="s">
+        <v>97</v>
       </c>
       <c r="G178" t="s">
         <v>33</v>
@@ -18996,8 +19061,8 @@
       <c r="E179" t="s">
         <v>25</v>
       </c>
-      <c r="F179">
-        <v>201213</v>
+      <c r="F179" t="s">
+        <v>98</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
@@ -19061,8 +19126,8 @@
       <c r="E180" t="s">
         <v>25</v>
       </c>
-      <c r="F180">
-        <v>201314</v>
+      <c r="F180" t="s">
+        <v>99</v>
       </c>
       <c r="G180" t="s">
         <v>33</v>
@@ -19126,8 +19191,8 @@
       <c r="E181" t="s">
         <v>25</v>
       </c>
-      <c r="F181">
-        <v>201415</v>
+      <c r="F181" t="s">
+        <v>100</v>
       </c>
       <c r="G181" t="s">
         <v>33</v>
@@ -19191,8 +19256,8 @@
       <c r="E182" t="s">
         <v>25</v>
       </c>
-      <c r="F182">
-        <v>201516</v>
+      <c r="F182" t="s">
+        <v>101</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -19256,8 +19321,8 @@
       <c r="E183" t="s">
         <v>25</v>
       </c>
-      <c r="F183">
-        <v>201617</v>
+      <c r="F183" t="s">
+        <v>102</v>
       </c>
       <c r="G183" t="s">
         <v>33</v>
@@ -19321,8 +19386,8 @@
       <c r="E184" t="s">
         <v>25</v>
       </c>
-      <c r="F184">
-        <v>201718</v>
+      <c r="F184" t="s">
+        <v>103</v>
       </c>
       <c r="G184" t="s">
         <v>33</v>
@@ -19386,8 +19451,8 @@
       <c r="E185" t="s">
         <v>25</v>
       </c>
-      <c r="F185">
-        <v>201819</v>
+      <c r="F185" t="s">
+        <v>104</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -19451,8 +19516,8 @@
       <c r="E186" t="s">
         <v>25</v>
       </c>
-      <c r="F186">
-        <v>201920</v>
+      <c r="F186" t="s">
+        <v>105</v>
       </c>
       <c r="G186" t="s">
         <v>33</v>
@@ -19516,8 +19581,8 @@
       <c r="E187" t="s">
         <v>25</v>
       </c>
-      <c r="F187">
-        <v>202021</v>
+      <c r="F187" t="s">
+        <v>106</v>
       </c>
       <c r="G187" t="s">
         <v>33</v>
@@ -19581,8 +19646,8 @@
       <c r="E188" t="s">
         <v>25</v>
       </c>
-      <c r="F188">
-        <v>202122</v>
+      <c r="F188" t="s">
+        <v>107</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -19646,8 +19711,8 @@
       <c r="E189" t="s">
         <v>25</v>
       </c>
-      <c r="F189">
-        <v>202223</v>
+      <c r="F189" t="s">
+        <v>108</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -19736,7 +19801,7 @@
         <v>28</v>
       </c>
       <c r="N190">
-        <v>0.246984491671453</v>
+        <v>0.246984492</v>
       </c>
       <c r="O190">
         <v>3482</v>
@@ -19801,7 +19866,7 @@
         <v>28</v>
       </c>
       <c r="N191">
-        <v>0.54952210902216203</v>
+        <v>0.54952210899999998</v>
       </c>
       <c r="O191">
         <v>19042</v>
@@ -19866,7 +19931,7 @@
         <v>28</v>
       </c>
       <c r="N192">
-        <v>0.24494497056565101</v>
+        <v>0.24494497100000001</v>
       </c>
       <c r="O192">
         <v>3907</v>
@@ -19931,7 +19996,7 @@
         <v>28</v>
       </c>
       <c r="N193">
-        <v>0.56646302928165204</v>
+        <v>0.56646302900000001</v>
       </c>
       <c r="O193">
         <v>23735</v>
@@ -19996,7 +20061,7 @@
         <v>28</v>
       </c>
       <c r="N194">
-        <v>0.183537263626251</v>
+        <v>0.18353726400000001</v>
       </c>
       <c r="O194">
         <v>1798</v>
@@ -20061,7 +20126,7 @@
         <v>28</v>
       </c>
       <c r="N195">
-        <v>0.50847848656131001</v>
+        <v>0.50847848699999998</v>
       </c>
       <c r="O195">
         <v>8669</v>
@@ -20126,7 +20191,7 @@
         <v>28</v>
       </c>
       <c r="N196">
-        <v>0.19202898550724601</v>
+        <v>0.19202898600000001</v>
       </c>
       <c r="O196">
         <v>1104</v>
@@ -20191,7 +20256,7 @@
         <v>28</v>
       </c>
       <c r="N197">
-        <v>0.44490781387181699</v>
+        <v>0.44490781400000001</v>
       </c>
       <c r="O197">
         <v>4556</v>
@@ -20256,7 +20321,7 @@
         <v>28</v>
       </c>
       <c r="N198">
-        <v>0.18642117376294601</v>
+        <v>0.186421174</v>
       </c>
       <c r="O198">
         <v>869</v>
@@ -20321,7 +20386,7 @@
         <v>28</v>
       </c>
       <c r="N199">
-        <v>0.44062356717102202</v>
+        <v>0.44062356699999999</v>
       </c>
       <c r="O199">
         <v>4362</v>
@@ -20386,7 +20451,7 @@
         <v>28</v>
       </c>
       <c r="N200">
-        <v>0.20697012802275999</v>
+        <v>0.206970128</v>
       </c>
       <c r="O200">
         <v>5624</v>
@@ -20451,7 +20516,7 @@
         <v>28</v>
       </c>
       <c r="N201">
-        <v>0.49194879089615901</v>
+        <v>0.491948791</v>
       </c>
       <c r="O201">
         <v>17575</v>
@@ -20516,7 +20581,7 @@
         <v>28</v>
       </c>
       <c r="N202">
-        <v>0.205116491548652</v>
+        <v>0.20511649200000001</v>
       </c>
       <c r="O202">
         <v>2189</v>
@@ -20581,7 +20646,7 @@
         <v>28</v>
       </c>
       <c r="N203">
-        <v>0.50689799331103702</v>
+        <v>0.50689799300000005</v>
       </c>
       <c r="O203">
         <v>9568</v>
@@ -20646,7 +20711,7 @@
         <v>28</v>
       </c>
       <c r="N204">
-        <v>0.22015570934256101</v>
+        <v>0.220155709</v>
       </c>
       <c r="O204">
         <v>2312</v>
@@ -20711,7 +20776,7 @@
         <v>28</v>
       </c>
       <c r="N205">
-        <v>0.48821902127253602</v>
+        <v>0.48821902099999998</v>
       </c>
       <c r="O205">
         <v>10483</v>
@@ -20776,7 +20841,7 @@
         <v>28</v>
       </c>
       <c r="N206">
-        <v>0.214314115308151</v>
+        <v>0.214314115</v>
       </c>
       <c r="O206">
         <v>5030</v>
@@ -20841,7 +20906,7 @@
         <v>28</v>
       </c>
       <c r="N207">
-        <v>0.476031598057014</v>
+        <v>0.476031598</v>
       </c>
       <c r="O207">
         <v>20381</v>
@@ -20906,7 +20971,7 @@
         <v>28</v>
       </c>
       <c r="N208">
-        <v>0.205974842767296</v>
+        <v>0.20597484299999999</v>
       </c>
       <c r="O208">
         <v>2544</v>
@@ -20971,7 +21036,7 @@
         <v>28</v>
       </c>
       <c r="N209">
-        <v>0.45051060487038502</v>
+        <v>0.45051060500000001</v>
       </c>
       <c r="O209">
         <v>7638</v>
@@ -21036,7 +21101,7 @@
         <v>28</v>
       </c>
       <c r="N210">
-        <v>0.20613048368953901</v>
+        <v>0.206130484</v>
       </c>
       <c r="O210">
         <v>3556</v>
@@ -21101,7 +21166,7 @@
         <v>28</v>
       </c>
       <c r="N211">
-        <v>0.49440199040341198</v>
+        <v>0.49440199000000001</v>
       </c>
       <c r="O211">
         <v>16881</v>
@@ -21166,7 +21231,7 @@
         <v>28</v>
       </c>
       <c r="N212">
-        <v>0.210502072777522</v>
+        <v>0.21050207300000001</v>
       </c>
       <c r="O212">
         <v>4342</v>
@@ -21231,7 +21296,7 @@
         <v>28</v>
       </c>
       <c r="N213">
-        <v>0.51582676798284499</v>
+        <v>0.51582676800000005</v>
       </c>
       <c r="O213">
         <v>21451</v>
@@ -21296,7 +21361,7 @@
         <v>28</v>
       </c>
       <c r="N214">
-        <v>0.25227085053674603</v>
+        <v>0.25227085100000002</v>
       </c>
       <c r="O214">
         <v>9688</v>
@@ -21361,7 +21426,7 @@
         <v>28</v>
       </c>
       <c r="N215">
-        <v>0.49816041206769701</v>
+        <v>0.498160412</v>
       </c>
       <c r="O215">
         <v>24462</v>
@@ -21426,7 +21491,7 @@
         <v>28</v>
       </c>
       <c r="N216">
-        <v>0.169547534316218</v>
+        <v>0.169547534</v>
       </c>
       <c r="O216">
         <v>3934</v>
@@ -21491,7 +21556,7 @@
         <v>28</v>
       </c>
       <c r="N217">
-        <v>0.48234918608362598</v>
+        <v>0.48234918599999999</v>
       </c>
       <c r="O217">
         <v>15665</v>
@@ -21556,7 +21621,7 @@
         <v>28</v>
       </c>
       <c r="N218">
-        <v>0.209881422924901</v>
+        <v>0.20988142300000001</v>
       </c>
       <c r="O218">
         <v>2530</v>
@@ -21621,7 +21686,7 @@
         <v>28</v>
       </c>
       <c r="N219">
-        <v>0.51363558888699501</v>
+        <v>0.51363558899999995</v>
       </c>
       <c r="O219">
         <v>11734</v>
@@ -21751,7 +21816,7 @@
         <v>28</v>
       </c>
       <c r="N221">
-        <v>0.57450536613856995</v>
+        <v>0.57450536600000002</v>
       </c>
       <c r="O221">
         <v>13697</v>
@@ -21816,7 +21881,7 @@
         <v>28</v>
       </c>
       <c r="N222">
-        <v>0.42099527787867802</v>
+        <v>0.42099527799999997</v>
       </c>
       <c r="O222">
         <v>2753</v>
@@ -21881,7 +21946,7 @@
         <v>28</v>
       </c>
       <c r="N223">
-        <v>0.64985673352435502</v>
+        <v>0.64985673399999999</v>
       </c>
       <c r="O223">
         <v>5235</v>
@@ -21946,7 +22011,7 @@
         <v>28</v>
       </c>
       <c r="N224">
-        <v>0.21469740634005799</v>
+        <v>0.21469740600000001</v>
       </c>
       <c r="O224">
         <v>4164</v>
@@ -22011,7 +22076,7 @@
         <v>28</v>
       </c>
       <c r="N225">
-        <v>0.52582789179104505</v>
+        <v>0.52582789200000002</v>
       </c>
       <c r="O225">
         <v>17152</v>
@@ -22076,7 +22141,7 @@
         <v>28</v>
       </c>
       <c r="N226">
-        <v>0.20146984287886499</v>
+        <v>0.20146984300000001</v>
       </c>
       <c r="O226">
         <v>3946</v>
@@ -22141,7 +22206,7 @@
         <v>28</v>
       </c>
       <c r="N227">
-        <v>0.48959713239304897</v>
+        <v>0.48959713199999999</v>
       </c>
       <c r="O227">
         <v>12833</v>
@@ -22206,7 +22271,7 @@
         <v>28</v>
       </c>
       <c r="N228">
-        <v>0.235967012503325</v>
+        <v>0.235967013</v>
       </c>
       <c r="O228">
         <v>3759</v>
@@ -22271,7 +22336,7 @@
         <v>28</v>
       </c>
       <c r="N229">
-        <v>0.47792989831278798</v>
+        <v>0.47792989800000002</v>
       </c>
       <c r="O229">
         <v>17603</v>
@@ -22336,7 +22401,7 @@
         <v>28</v>
       </c>
       <c r="N230">
-        <v>0.22402402402402399</v>
+        <v>0.22402402399999999</v>
       </c>
       <c r="O230">
         <v>1665</v>
@@ -22401,7 +22466,7 @@
         <v>28</v>
       </c>
       <c r="N231">
-        <v>0.48798408082044997</v>
+        <v>0.48798408100000001</v>
       </c>
       <c r="O231">
         <v>6533</v>
@@ -22466,7 +22531,7 @@
         <v>28</v>
       </c>
       <c r="N232">
-        <v>0.17270916334661399</v>
+        <v>0.172709163</v>
       </c>
       <c r="O232">
         <v>5020</v>
@@ -22531,7 +22596,7 @@
         <v>28</v>
       </c>
       <c r="N233">
-        <v>0.46081289658720598</v>
+        <v>0.460812897</v>
       </c>
       <c r="O233">
         <v>11662</v>
@@ -22596,7 +22661,7 @@
         <v>28</v>
       </c>
       <c r="N234">
-        <v>0.210843373493976</v>
+        <v>0.210843373</v>
       </c>
       <c r="O234">
         <v>1162</v>
@@ -22661,7 +22726,7 @@
         <v>28</v>
       </c>
       <c r="N235">
-        <v>0.51343154246100497</v>
+        <v>0.51343154199999996</v>
       </c>
       <c r="O235">
         <v>6924</v>
@@ -22726,7 +22791,7 @@
         <v>28</v>
       </c>
       <c r="N236">
-        <v>0.212679425837321</v>
+        <v>0.212679426</v>
       </c>
       <c r="O236">
         <v>4180</v>
@@ -22791,7 +22856,7 @@
         <v>28</v>
       </c>
       <c r="N237">
-        <v>0.50071790944768801</v>
+        <v>0.50071790900000002</v>
       </c>
       <c r="O237">
         <v>10447</v>
@@ -22856,7 +22921,7 @@
         <v>28</v>
       </c>
       <c r="N238">
-        <v>0.34182229767968297</v>
+        <v>0.34182229800000002</v>
       </c>
       <c r="O238">
         <v>5301</v>
@@ -22921,7 +22986,7 @@
         <v>28</v>
       </c>
       <c r="N239">
-        <v>0.56214640836619201</v>
+        <v>0.56214640800000004</v>
       </c>
       <c r="O239">
         <v>17499</v>
@@ -22986,7 +23051,7 @@
         <v>28</v>
       </c>
       <c r="N240">
-        <v>0.33501174890903002</v>
+        <v>0.33501174900000003</v>
       </c>
       <c r="O240">
         <v>2979</v>
@@ -23051,7 +23116,7 @@
         <v>28</v>
       </c>
       <c r="N241">
-        <v>0.63102069205355604</v>
+        <v>0.63102069199999999</v>
       </c>
       <c r="O241">
         <v>11502</v>
@@ -23116,7 +23181,7 @@
         <v>28</v>
       </c>
       <c r="N242">
-        <v>0.38827614379085001</v>
+        <v>0.38827614399999999</v>
       </c>
       <c r="O242">
         <v>4896</v>
@@ -23181,7 +23246,7 @@
         <v>28</v>
       </c>
       <c r="N243">
-        <v>0.62581238856617005</v>
+        <v>0.62581238900000002</v>
       </c>
       <c r="O243">
         <v>17387</v>
@@ -23246,7 +23311,7 @@
         <v>28</v>
       </c>
       <c r="N244">
-        <v>0.17848769050410301</v>
+        <v>0.178487691</v>
       </c>
       <c r="O244">
         <v>3412</v>
@@ -23311,7 +23376,7 @@
         <v>28</v>
       </c>
       <c r="N245">
-        <v>0.43786727819979898</v>
+        <v>0.43786727800000003</v>
       </c>
       <c r="O245">
         <v>13954</v>
@@ -23376,7 +23441,7 @@
         <v>28</v>
       </c>
       <c r="N246">
-        <v>0.222034307803817</v>
+        <v>0.22203430800000001</v>
       </c>
       <c r="O246">
         <v>4139</v>
@@ -23441,7 +23506,7 @@
         <v>28</v>
       </c>
       <c r="N247">
-        <v>0.48996899507568797</v>
+        <v>0.48996899500000002</v>
       </c>
       <c r="O247">
         <v>10966</v>
@@ -23506,7 +23571,7 @@
         <v>28</v>
       </c>
       <c r="N248">
-        <v>0.21435546875</v>
+        <v>0.21435546899999999</v>
       </c>
       <c r="O248">
         <v>4096</v>
@@ -23571,7 +23636,7 @@
         <v>28</v>
       </c>
       <c r="N249">
-        <v>0.53377383106771603</v>
+        <v>0.53377383099999998</v>
       </c>
       <c r="O249">
         <v>23761</v>
@@ -23636,7 +23701,7 @@
         <v>28</v>
       </c>
       <c r="N250">
-        <v>0.22978491696161199</v>
+        <v>0.22978491700000001</v>
       </c>
       <c r="O250">
         <v>3673</v>
@@ -23701,7 +23766,7 @@
         <v>28</v>
       </c>
       <c r="N251">
-        <v>0.49511677282377897</v>
+        <v>0.49511677300000001</v>
       </c>
       <c r="O251">
         <v>9420</v>
@@ -23766,7 +23831,7 @@
         <v>28</v>
       </c>
       <c r="N252">
-        <v>0.26958886050918701</v>
+        <v>0.26958886100000001</v>
       </c>
       <c r="O252">
         <v>12137</v>
@@ -23831,7 +23896,7 @@
         <v>28</v>
       </c>
       <c r="N253">
-        <v>0.49080281229561801</v>
+        <v>0.49080281199999998</v>
       </c>
       <c r="O253">
         <v>24464</v>
@@ -23896,7 +23961,7 @@
         <v>28</v>
       </c>
       <c r="N254">
-        <v>0.237607537894306</v>
+        <v>0.23760753800000001</v>
       </c>
       <c r="O254">
         <v>7323</v>
@@ -23961,7 +24026,7 @@
         <v>28</v>
       </c>
       <c r="N255">
-        <v>0.50292771736456199</v>
+        <v>0.50292771700000005</v>
       </c>
       <c r="O255">
         <v>20323</v>
